--- a/500all/speech_level/speeches_CHRG-114hhrg20099.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20099.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. This committee will come to order. Members present will be permitted to submit written statements to be included in the official hearing record.    And without objection, the hearing record will remain open for 5 calendar days to allow statements, questions, and extraneous materials for the record subject to the length limitation in the rules.    The South Asian's subcontinent is one of enormous potential. This important region of over 1\\1/2\\ billion people, including 40 percent of the world's poor, is often overlooked, or viewed primarily through the lens of the challenges in Afghanistan and Pakistan.    But the rest of South Asia is more significant than the attention it receives would suggest. India recently surpassed China as the world's fastest growing and large economy, and the region is looking to enhance trade connectivity to boost growth.    On the other hand, South Asia still faces major development challenges, including weak governance, corruption, and threats from violent extremism. We will hear from the administration witnesses today on its efforts in these areas.    Given China's interests in building influence in the region, I would also like to hear about the administration's work to maintain relevancy in South Asia.    This hearing will focus on the Fiscal Year 2017 State Department and U.S. Agency for International Development budget request for the South Asia region. I look forward to hearing from the panel about how we are to boost U.S. presence in this important region.    India is undoubtedly a very important partner for the United States. We have many interests in India, including facilitating India's membership in APEC, which I have spoken many times and checked in with you guys about, ongoing BIT negotiations, and strengthening defense and security agreements.    Twenty percent of India's population lives in extreme poverty, with one-fourth of the total population completely off the electric grid. If India is to realize its leading role in the region, it must facilitate reforms to create opportunities and better lives for its own people.    How are we assisting the Indian Government and leveraging the private sector to improve the conditions of the people in India? India is clearly a priority for the administration, but what progress is now being made? This committee has concerns about antiquated protectionist policies that hold back India's full-growth potential and hurt U.S. companies. Restrictions on market access including direct retail sales, weak intellectual property protection, and the time required to resolve contract disputes are among the top concerns for U.S. businesses.    Prime Minister Modi has made economic reform a centerpiece in his administration, and I am very pleased that he has.    What are we doing to help spur the Indian Government in the much-needed opening of India's economy? Sri Lanka's new government has been touted as more American leaning than the prior administration, but more work lies ahead. The Fiscal Year 2017 budget request for Sri Lanka is a tenfold increase from previous years, now at 39.8 million. How will such an increase in funding work toward bolstering democratic change and strengthening civil society organizations?    Many successful efforts in South Asia are transferable between countries. How are we ensuring adequate transfer of successful programs to leverage resources efficiently? Nepal faced a devastating earthquake last year, and the House responded with a resolution that myself, along with Ranking Member Sherman, put forward. We stood with Nepal. And my State of Arizona even lost one of our finest in the efforts to search and rescue, and we continue to assist in rebuilding.    This year's budget calls for an increase of 8.3 million for Nepal for continued relief efforts. Please update us on these efforts in Nepal, including timeframe and the outlook to completion.    Bangladesh receives the largest amount of U.S. development assistance and global funding in the region. Bangladesh is considered a moderate Muslim country, receives the most attention for counterterrorism efforts, yet, continues to struggle.    Since 2013, several bloggers and international activities have been brutally killed, six in the past 12 months alone. I offer my deepest condolences to the families and friends of the USAID employee and local human rights activist, who was brutally murdered just a few short weeks ago. Bangladesh also continues to struggle with democratic governance, the rule of law, and corruption.    The request for assistance to Bangladesh reflects an increase of $13.5 million. I would also ask the panel to discuss overall assistance to Bangladesh as it results to countering violent extremism and providing for further freedom of expression without violent recourse. I also want to understand what specific programs are we putting in place to meet these challenges?    Finally, the Maldives, the smallest nation in the region, has shown a worrying deterioration of its democracy, as well as concerning percentage of its population traveling to the Middle East as foreign fighters. South Asia is an increasingly important region of the world. It is ripe with opportunity, yet held back by corruption, weak governance, and danger of extremism.    With our oversight hearing today, we will be discussing diplomacy and foreign assistance in South Asia, including progress made over the past year. The United States should also look at how to best connect South Asia to the Asia Pacific, integration that would be vital to facilitating South Asia's potential. I look forward to the discussion not only on what was accomplished last year, but what we accomplish next year.    And before I turn the time over to our ranking member, I would like to recognize the Bangladesh Ambassador to the U.S. Would you please stand and be recognized.    Thank you, Ambassador. We are really happy to have you here today.    And I would like to now give time to the ranking member, Mr. Sherman.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Mr. Chairman, thank you.    South Asia, with nearly 2 billion people, by definition, is a major focus of American foreign policy. As the largest democracy, second most populous country, maybe soon to be first most populous country, and the third largest economy in the world, India is perhaps the greatest geopolitical opportunity for the United States. The United States and India share many core values, including religious pluralism, individual freedom, and the rule of law. Over the past decade, the United States and India have worked to bring India out from nuclear isolation, increased defense and security cooperation, narrowed differences over how to combat climate change, and a number of other signs of a more intense and high-quality relationship.    Right now, our trade is about $110 billion in goods and services both ways, and we are running a $20-billion deficit. I strongly support Vice President Biden's goal of increasing bilateral trade to $500 billion, and I hope that that is $250 billion in each direction. I know the administration has continued to pursue a bilateral investment treaty with India, and I am interested in knowing how this would not only increase trade and investment, but lead to balanced trade.    And I would admonish the State Department folks, who are here, including, of course, the Assistant Secretary. Companies will come to you saying, this is great for America's economy, and what they want is to make $1 million profit off a $1 million licensing fee. The State Department needs to focus on the jobs, not the profits.    And, for example, I have seen the State Department actively market cars made in Germany because, well, Chrysler asked them to do it. They didn't bother to notice that the car was made in Germany. So I am hoping that the embassies and others who report to you are focused on the jobs aspect, not just whether there is a familiar American company asking for help.    The International Energy Administration estimates that India will require $2.1 trillion in investment in power sector loans to meet pent up demand. I want to do everything we can to ensure that American companies employing American workers provide a good portion of the plant equipment and technology that would go into that new infrastructure.    When we voted in favor of the nuclear cooperation agreement, we were told that India would reform its liability laws to facilitate American participation. I look forward to hearing from the witnesses as to why India continues to have a legal structure that provides that level of liability protection to Russian, French, and Chinese firms that can claim sovereign immunity, while, in effect, freezing U.S. companies out of the market.    As to Bangladesh, the chair noted many of the concerns. Despite development progress, there is the continued instance of extreme poverty. The growth of Islamic extremism, murderers working their way through a publicly circulated list of politically active members of religious minorities. Less than 2 weeks ago, Xulhaz Mannan, a USAID employee, was brutally murdered for his activism in human rights. The home of a Christian family was bombed, and just last weekend, a Sufi saint was murdered. I look forward to hearing how we are addressing these concerns, particularly with regard to the significant Hindu minority in Bangladesh.    I look forward to hearing your assessments on Sri Lanka and its political process of reconciliation. I met recently with the Ambassador of Sri Lanka and encouraged Sri Lanka to move forward to increase American import--imports from America, and, of course, political reconciliation between the Sinhalese and the Tanuk communities.    He explained that there were elements of progress, but as I talked to those from the Tamil community, I see that progress could be moving forward and more quickly toward giving more local power to local officials and withdrawing the military from the Northeast.    Even in the smallest country of the region, the Maldives, with a population of only 400,000, we see important American interests at stake. President Yameen is crushing democracy. It is becoming a recruiting paradise for jihadists. More than 200 Maldivians are estimated to have traveled to Syria and Iraq, the highest record of terrorist recruitment per capita in the world.    And when Islamic State fighters return to the Maldives, they don't face prosecution. Of course, there are countries in Europe where returning fighters do not face prosecution, and that is a mistake, both for the world and the individual country to which they return.    Finally, with respect to Nepal, I hope to hear about the effectiveness of the $130 billion--million dollar U.S. response to the earthquake in April of last year.    Ms. Biswal, in your written testimony you say the needs are $6.6 billion. Two-thirds have been committed, but that we are meeting only 10 to 18 percent of the housing and health facility needs. My guess is that although the commitment may be at the two-thirds level, the actual funding may be at the 5 or 10 percent level. And I look forward to seeing what we can do and how the administration would justify its $109.3 million request, though. With that, I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412512</t>
   </si>
   <si>
-    <t>Ami Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Mr. Chairman. Thank you, Ranking Member. And I look forward to hearing from the witnesses.    Obviously, this is an exciting time in the U.S.-India relationship. I mean, it is a remarkable time in terms of the level of economic cooperation and defense, the defense cooperation, and the possibilities are endless.    Working with the chairman, you know, a logical next step in the development of India and, you know, more broadly, South Asia, is India's membership in APEC, and certainly, this body looks forward to working with the Department of State to push for India's membership in APEC, and we continue to encourage that. That not only is beneficial to India, obviously that, you know, sets the stage for the next step, as potentially getting bilateral investment treaty. This also is beneficial to the entire region of South Asia. Obviously, India is an economic powerhouse, but, you know, as India's economy rises and develops, hopefully, that, then, spills over to Bangladesh and the other countries in the region.    So, yes, I do see this, both from the USAID perspective, but also from the U.S.-India perspective and U.S.-South Asia perspective as a great next step to really start to accelerate the South Asian marketplace and the countries.    So thank you. I look forward to hearing that, and I will yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Biswal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Biswal. Mr. Chairman, thank you very much. Ranking Member Sherman, thank you very much for the invitation to testify today. And I would ask that my full written statement be submitted for the record so that I may summarize.</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Stivers.</t>
   </si>
   <si>
-    <t>Stivers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stivers. Thank you. Chairman Salmon, Ranking Member Sherman, and distinguished members of this subcommittee. Thank you for the invitation to testify today on advancing U.S. foreign policy goals in South Asia. It is an honor to be back again before this committee, especially alongside my friend and colleague, Assistant Secretary Nisha Biswal.    Before I begin, I would like to extend the deepest condolences to the families and friends of Xulhaz Mannan. He was a member of the USAID family in Bangladesh, and he was brutally murdered late last month. Xulhaz embodies the very best of USAID. He was a heroic leader for human rights including on LGBTI issues. His tragic loss is a reminder of the risks that our staff take every day in the field to improve the lives of the most vulnerable people.    Last week, Nisha and I were able to meet with his family and friends to better understand his life and legacy and what he was fighting for in Bangladesh, in addition to the growing violent extremism in that country.    We are urging the Bangladesh Government, at the highest levels, to fully investigate this violent attack, and others and bring the perpetrators to justice. We are also ensuring the safety and security of our staff as our highest priority in this difficult operating environment.    The President's budget request of $440.7 million for South Asia reflects our sustained commitment to this vitally important region. While the region has achieved much success in terms of development, significant challenges remain. South Asia has roughly one-third of the world's extreme poor, both the highest rates and largest numbers of undernourished children in the world, and is extremely prone to natural disasters as we saw last April in Nepal.    We are working through three primary approaches in USAID. First, we are pioneering a new model of development that focuses on leveraging our impact and our funding by using public-private partnerships, science, innovation, and regional solutions.    For example, in India, while our assistance dollars have been steady, the total value of U.S. development programs have doubled, because we are leveraging the private sector and international donors to move forward and make progress on a lot of the very important human development and health outcomes that we want to have there.    Second, we are building pathways out of poverty through integrated approaches with the three Presidential initiatives on global health, Feed the Future, and climate change.    And, third, we are promoting democratic governance and empowering reformers, because we know that the best chance of promoting democratic change is to empower the reformers to change their country.    In Bangladesh, USAID has helped the country make enormous progress in recent years. They have been able to cut their poverty rate in half. They have reduced deaths of mothers and children by more than two-thirds. They have improved the management of 2\\1/2\\ million acres of forest and wetland, home of the endangered Bengal tiger, and we have helped introduce new rice varieties that can withstand flooding and high salt levels. And as a result, Bangladesh now does not have to rely heavily on rice imports. Despite this progress and the tradition of tolerance in Bangladesh, rising violent extremism is a threat to the country's development.    USAID supports those who represent a democratic pluralist society in Bangladesh, such as civil society and journalists. USAID also works to address a weak judicial system by strengthening the ability of the institution to uphold the rule of law, and bring perpetrators of violent extremism to justice. We will continue to analyze, update, and implement our strategies to best help the reformers increase and maintain the right of the Bangladeshi people to freely express themselves through their religion or their political views.    In India, successfully addressing health challenges means success on a global scale. Accordingly, the bulk of the budget requests for India will go toward maintaining momentum on goals related to child and maternal survival, HIV/AIDS, TB, clean drinking water, and sanitation solutions. Addressing gender inequality is a crosscutting focus of our USAID initiatives in India. We are helping to implement a safe cities partnership that focuses on increasing safety for women in public transportation, schools, streets, and connects women with advocacy and support services.    When the earthquake struck last year in Nepal, our 20-year investment in disaster risk reduction proved critical to Nepal's ability to respond. From more than 1,000 USAID-trained first responders who conducted search-and-rescue missions saving lives, to a major hospital that continued treating patients uninterrupted, due to the preparedness plan we helped them establish, the U.S. Government mobilized 130 million to respond to the immediate post earthquake needs, including construction of temporary schools, emergency nutrition and food, and expanding our countertrafficking in persons work to earthquake-affected districts.    Many obstacles lie ahead. Reconstruction from the earthquake is likely to take many years with total economic losses estimated at $7 billion.    U.S. support for the international effort to help Nepal's recovery is critical to helping maintain development progress. In 2015, Sri Lankans went to the poles to support a sweeping democratic reform agenda. Seizing on this democratic breakthrough, USAID is helping Sri Lanka strengthen democratic institutions through the Parliament, judiciary, and auditor general, as well as support for civil rights and human rights.    In addition, we are providing economic help for the poorest and most vulnerable Sri Lankans, especially in former conflict zones with resettlement and economically lagging regions.    Mr. Chairman, alongside diplomacy and defense, development plays an indispensable role in advancing our security and prosperity. We must address both immediate crises, and the root causes of poverty, conflict, and instability. This is the heart of our work in the South Asia region.    I appreciate the opportunity to testify, and I welcome any questions.</t>
   </si>
   <si>
@@ -184,9 +169,6 @@
     <t>412569</t>
   </si>
   <si>
-    <t>Scott Perry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perry. Thanks, Mr. Chairman. Ladies and gentlemen, thanks for being here. I am not sure who can, or would be willing to answer the question, but I am hoping one of you can. So the 2017 budget request for Nepal includes an over 300-percent increase in OCO, or overseas contingency operations funding, and a nearly 50-percent decrease in the base. Now, while the OCO request includes some continued earthquake assistance, it also includes a significant amount of funding for seemingly normal programs, like elementary reading education.    Can either one of you elaborate on the justification for shifting so much to the OCO account for Nepal?</t>
   </si>
   <si>
@@ -232,9 +214,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Ms. Biswal, in your opening remarks you mentioned the Maldivia, and I know you ran out of time, so I would like to ask you to speak a little bit more about the Maldives, and specifically, the percentage of their small population who are foreign fighters who are traveling to Syria.    Can you talk about how the United States is working with the Maldives to counter this strikingly high number of foreign fighters that they have from the Maldives?</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you very much, and thank you for being here today. First of all, I would like to talk briefly about Sri Lanka. They held elections obviously in 2015, and it has kind of marked, I would say, a political shift that is pretty significant in the country. And I had been to Sri Lanka in the past, and kind of witnessed firsthand some of the devastation that occurred during, and in the follow-up to the civil war and the unrest that they had there for quite some time, particularly in the north of the country and the area around Jaffna. What would you say is the situation relative to the government actually coming together, where Tamils feel an actual role in the government?    When I was there, and this has been probably 5, 6 years ago, they didn't feel like they were being treated at all well by the government. The government obviously had a different point of view on this. What would you say is the situation, and especially on the ground in the North? They said they were being excluded from being in police departments and a whole range of jobs and things. How are things now?</t>
   </si>
   <si>
@@ -281,9 +257,6 @@
   </si>
   <si>
     <t>412272</t>
-  </si>
-  <si>
-    <t>Gerald E. Connolly</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman, and welcome. I want to go back to Nepal for a minute, and following up on the gentleman from Pennsylvania's questioning of the use of overseas contingency accounts. And I may have misunderstood the gentleman from Pennsylvania, but it seemed like his last observation was, well, we are always going to have problems in Nepal. And that is true, but I wanted to put this in perspective. The earthquake that occurred over a year ago in Nepal, was it not something like the third largest, most intense earthquake ever recorded? Mr. Stivers, somebody?</t>
@@ -769,11 +742,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -793,13 +764,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -821,11 +790,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -845,13 +812,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -873,11 +838,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -897,13 +860,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -925,11 +886,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -949,13 +908,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -977,11 +934,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1001,13 +956,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1029,11 +982,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1053,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1081,11 +1030,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1105,13 +1052,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1133,11 +1078,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1157,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1183,13 +1124,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1209,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1235,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1261,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1287,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1313,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1339,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1365,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1391,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1417,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1443,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1469,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1495,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1521,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1547,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1573,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1599,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1625,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1653,11 +1558,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1677,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1703,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1729,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1755,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1781,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
         <v>55</v>
-      </c>
-      <c r="G41" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1807,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1833,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1859,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1885,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1911,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1937,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1963,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1989,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2017,11 +1894,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2041,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2067,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2093,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2119,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2145,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2171,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
         <v>71</v>
-      </c>
-      <c r="G56" t="s">
-        <v>72</v>
-      </c>
-      <c r="H56" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2199,11 +2062,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2223,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2249,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2275,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2301,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2327,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2355,11 +2206,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2379,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2405,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2431,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2457,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2483,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2509,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2535,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2561,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2587,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>88</v>
-      </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
-      <c r="H72" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2613,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2639,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2665,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2691,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2717,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2743,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2769,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2795,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2821,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2847,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2873,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
-      </c>
-      <c r="G83" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2899,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2925,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2951,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
-      </c>
-      <c r="G86" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2977,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3003,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
-      </c>
-      <c r="G88" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3031,11 +2830,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3055,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3083,11 +2878,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3107,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3135,11 +2926,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20099.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20099.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. This committee will come to order. Members present will be permitted to submit written statements to be included in the official hearing record.    And without objection, the hearing record will remain open for 5 calendar days to allow statements, questions, and extraneous materials for the record subject to the length limitation in the rules.    The South Asian's subcontinent is one of enormous potential. This important region of over 1\\1/2\\ billion people, including 40 percent of the world's poor, is often overlooked, or viewed primarily through the lens of the challenges in Afghanistan and Pakistan.    But the rest of South Asia is more significant than the attention it receives would suggest. India recently surpassed China as the world's fastest growing and large economy, and the region is looking to enhance trade connectivity to boost growth.    On the other hand, South Asia still faces major development challenges, including weak governance, corruption, and threats from violent extremism. We will hear from the administration witnesses today on its efforts in these areas.    Given China's interests in building influence in the region, I would also like to hear about the administration's work to maintain relevancy in South Asia.    This hearing will focus on the Fiscal Year 2017 State Department and U.S. Agency for International Development budget request for the South Asia region. I look forward to hearing from the panel about how we are to boost U.S. presence in this important region.    India is undoubtedly a very important partner for the United States. We have many interests in India, including facilitating India's membership in APEC, which I have spoken many times and checked in with you guys about, ongoing BIT negotiations, and strengthening defense and security agreements.    Twenty percent of India's population lives in extreme poverty, with one-fourth of the total population completely off the electric grid. If India is to realize its leading role in the region, it must facilitate reforms to create opportunities and better lives for its own people.    How are we assisting the Indian Government and leveraging the private sector to improve the conditions of the people in India? India is clearly a priority for the administration, but what progress is now being made? This committee has concerns about antiquated protectionist policies that hold back India's full-growth potential and hurt U.S. companies. Restrictions on market access including direct retail sales, weak intellectual property protection, and the time required to resolve contract disputes are among the top concerns for U.S. businesses.    Prime Minister Modi has made economic reform a centerpiece in his administration, and I am very pleased that he has.    What are we doing to help spur the Indian Government in the much-needed opening of India's economy? Sri Lanka's new government has been touted as more American leaning than the prior administration, but more work lies ahead. The Fiscal Year 2017 budget request for Sri Lanka is a tenfold increase from previous years, now at 39.8 million. How will such an increase in funding work toward bolstering democratic change and strengthening civil society organizations?    Many successful efforts in South Asia are transferable between countries. How are we ensuring adequate transfer of successful programs to leverage resources efficiently? Nepal faced a devastating earthquake last year, and the House responded with a resolution that myself, along with Ranking Member Sherman, put forward. We stood with Nepal. And my State of Arizona even lost one of our finest in the efforts to search and rescue, and we continue to assist in rebuilding.    This year's budget calls for an increase of 8.3 million for Nepal for continued relief efforts. Please update us on these efforts in Nepal, including timeframe and the outlook to completion.    Bangladesh receives the largest amount of U.S. development assistance and global funding in the region. Bangladesh is considered a moderate Muslim country, receives the most attention for counterterrorism efforts, yet, continues to struggle.    Since 2013, several bloggers and international activities have been brutally killed, six in the past 12 months alone. I offer my deepest condolences to the families and friends of the USAID employee and local human rights activist, who was brutally murdered just a few short weeks ago. Bangladesh also continues to struggle with democratic governance, the rule of law, and corruption.    The request for assistance to Bangladesh reflects an increase of $13.5 million. I would also ask the panel to discuss overall assistance to Bangladesh as it results to countering violent extremism and providing for further freedom of expression without violent recourse. I also want to understand what specific programs are we putting in place to meet these challenges?    Finally, the Maldives, the smallest nation in the region, has shown a worrying deterioration of its democracy, as well as concerning percentage of its population traveling to the Middle East as foreign fighters. South Asia is an increasingly important region of the world. It is ripe with opportunity, yet held back by corruption, weak governance, and danger of extremism.    With our oversight hearing today, we will be discussing diplomacy and foreign assistance in South Asia, including progress made over the past year. The United States should also look at how to best connect South Asia to the Asia Pacific, integration that would be vital to facilitating South Asia's potential. I look forward to the discussion not only on what was accomplished last year, but what we accomplish next year.    And before I turn the time over to our ranking member, I would like to recognize the Bangladesh Ambassador to the U.S. Would you please stand and be recognized.    Thank you, Ambassador. We are really happy to have you here today.    And I would like to now give time to the ranking member, Mr. Sherman.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Mr. Chairman, thank you.    South Asia, with nearly 2 billion people, by definition, is a major focus of American foreign policy. As the largest democracy, second most populous country, maybe soon to be first most populous country, and the third largest economy in the world, India is perhaps the greatest geopolitical opportunity for the United States. The United States and India share many core values, including religious pluralism, individual freedom, and the rule of law. Over the past decade, the United States and India have worked to bring India out from nuclear isolation, increased defense and security cooperation, narrowed differences over how to combat climate change, and a number of other signs of a more intense and high-quality relationship.    Right now, our trade is about $110 billion in goods and services both ways, and we are running a $20-billion deficit. I strongly support Vice President Biden's goal of increasing bilateral trade to $500 billion, and I hope that that is $250 billion in each direction. I know the administration has continued to pursue a bilateral investment treaty with India, and I am interested in knowing how this would not only increase trade and investment, but lead to balanced trade.    And I would admonish the State Department folks, who are here, including, of course, the Assistant Secretary. Companies will come to you saying, this is great for America's economy, and what they want is to make $1 million profit off a $1 million licensing fee. The State Department needs to focus on the jobs, not the profits.    And, for example, I have seen the State Department actively market cars made in Germany because, well, Chrysler asked them to do it. They didn't bother to notice that the car was made in Germany. So I am hoping that the embassies and others who report to you are focused on the jobs aspect, not just whether there is a familiar American company asking for help.    The International Energy Administration estimates that India will require $2.1 trillion in investment in power sector loans to meet pent up demand. I want to do everything we can to ensure that American companies employing American workers provide a good portion of the plant equipment and technology that would go into that new infrastructure.    When we voted in favor of the nuclear cooperation agreement, we were told that India would reform its liability laws to facilitate American participation. I look forward to hearing from the witnesses as to why India continues to have a legal structure that provides that level of liability protection to Russian, French, and Chinese firms that can claim sovereign immunity, while, in effect, freezing U.S. companies out of the market.    As to Bangladesh, the chair noted many of the concerns. Despite development progress, there is the continued instance of extreme poverty. The growth of Islamic extremism, murderers working their way through a publicly circulated list of politically active members of religious minorities. Less than 2 weeks ago, Xulhaz Mannan, a USAID employee, was brutally murdered for his activism in human rights. The home of a Christian family was bombed, and just last weekend, a Sufi saint was murdered. I look forward to hearing how we are addressing these concerns, particularly with regard to the significant Hindu minority in Bangladesh.    I look forward to hearing your assessments on Sri Lanka and its political process of reconciliation. I met recently with the Ambassador of Sri Lanka and encouraged Sri Lanka to move forward to increase American import--imports from America, and, of course, political reconciliation between the Sinhalese and the Tanuk communities.    He explained that there were elements of progress, but as I talked to those from the Tamil community, I see that progress could be moving forward and more quickly toward giving more local power to local officials and withdrawing the military from the Northeast.    Even in the smallest country of the region, the Maldives, with a population of only 400,000, we see important American interests at stake. President Yameen is crushing democracy. It is becoming a recruiting paradise for jihadists. More than 200 Maldivians are estimated to have traveled to Syria and Iraq, the highest record of terrorist recruitment per capita in the world.    And when Islamic State fighters return to the Maldives, they don't face prosecution. Of course, there are countries in Europe where returning fighters do not face prosecution, and that is a mistake, both for the world and the individual country to which they return.    Finally, with respect to Nepal, I hope to hear about the effectiveness of the $130 billion--million dollar U.S. response to the earthquake in April of last year.    Ms. Biswal, in your written testimony you say the needs are $6.6 billion. Two-thirds have been committed, but that we are meeting only 10 to 18 percent of the housing and health facility needs. My guess is that although the commitment may be at the two-thirds level, the actual funding may be at the 5 or 10 percent level. And I look forward to seeing what we can do and how the administration would justify its $109.3 million request, though. With that, I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412512</t>
   </si>
   <si>
+    <t>Bera</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Mr. Chairman. Thank you, Ranking Member. And I look forward to hearing from the witnesses.    Obviously, this is an exciting time in the U.S.-India relationship. I mean, it is a remarkable time in terms of the level of economic cooperation and defense, the defense cooperation, and the possibilities are endless.    Working with the chairman, you know, a logical next step in the development of India and, you know, more broadly, South Asia, is India's membership in APEC, and certainly, this body looks forward to working with the Department of State to push for India's membership in APEC, and we continue to encourage that. That not only is beneficial to India, obviously that, you know, sets the stage for the next step, as potentially getting bilateral investment treaty. This also is beneficial to the entire region of South Asia. Obviously, India is an economic powerhouse, but, you know, as India's economy rises and develops, hopefully, that, then, spills over to Bangladesh and the other countries in the region.    So, yes, I do see this, both from the USAID perspective, but also from the U.S.-India perspective and U.S.-South Asia perspective as a great next step to really start to accelerate the South Asian marketplace and the countries.    So thank you. I look forward to hearing that, and I will yield back.</t>
   </si>
   <si>
@@ -76,6 +97,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Biswal</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Biswal. Mr. Chairman, thank you very much. Ranking Member Sherman, thank you very much for the invitation to testify today. And I would ask that my full written statement be submitted for the record so that I may summarize.</t>
   </si>
   <si>
@@ -88,6 +112,9 @@
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Stivers.</t>
   </si>
   <si>
+    <t>Stivers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stivers. Thank you. Chairman Salmon, Ranking Member Sherman, and distinguished members of this subcommittee. Thank you for the invitation to testify today on advancing U.S. foreign policy goals in South Asia. It is an honor to be back again before this committee, especially alongside my friend and colleague, Assistant Secretary Nisha Biswal.    Before I begin, I would like to extend the deepest condolences to the families and friends of Xulhaz Mannan. He was a member of the USAID family in Bangladesh, and he was brutally murdered late last month. Xulhaz embodies the very best of USAID. He was a heroic leader for human rights including on LGBTI issues. His tragic loss is a reminder of the risks that our staff take every day in the field to improve the lives of the most vulnerable people.    Last week, Nisha and I were able to meet with his family and friends to better understand his life and legacy and what he was fighting for in Bangladesh, in addition to the growing violent extremism in that country.    We are urging the Bangladesh Government, at the highest levels, to fully investigate this violent attack, and others and bring the perpetrators to justice. We are also ensuring the safety and security of our staff as our highest priority in this difficult operating environment.    The President's budget request of $440.7 million for South Asia reflects our sustained commitment to this vitally important region. While the region has achieved much success in terms of development, significant challenges remain. South Asia has roughly one-third of the world's extreme poor, both the highest rates and largest numbers of undernourished children in the world, and is extremely prone to natural disasters as we saw last April in Nepal.    We are working through three primary approaches in USAID. First, we are pioneering a new model of development that focuses on leveraging our impact and our funding by using public-private partnerships, science, innovation, and regional solutions.    For example, in India, while our assistance dollars have been steady, the total value of U.S. development programs have doubled, because we are leveraging the private sector and international donors to move forward and make progress on a lot of the very important human development and health outcomes that we want to have there.    Second, we are building pathways out of poverty through integrated approaches with the three Presidential initiatives on global health, Feed the Future, and climate change.    And, third, we are promoting democratic governance and empowering reformers, because we know that the best chance of promoting democratic change is to empower the reformers to change their country.    In Bangladesh, USAID has helped the country make enormous progress in recent years. They have been able to cut their poverty rate in half. They have reduced deaths of mothers and children by more than two-thirds. They have improved the management of 2\\1/2\\ million acres of forest and wetland, home of the endangered Bengal tiger, and we have helped introduce new rice varieties that can withstand flooding and high salt levels. And as a result, Bangladesh now does not have to rely heavily on rice imports. Despite this progress and the tradition of tolerance in Bangladesh, rising violent extremism is a threat to the country's development.    USAID supports those who represent a democratic pluralist society in Bangladesh, such as civil society and journalists. USAID also works to address a weak judicial system by strengthening the ability of the institution to uphold the rule of law, and bring perpetrators of violent extremism to justice. We will continue to analyze, update, and implement our strategies to best help the reformers increase and maintain the right of the Bangladeshi people to freely express themselves through their religion or their political views.    In India, successfully addressing health challenges means success on a global scale. Accordingly, the bulk of the budget requests for India will go toward maintaining momentum on goals related to child and maternal survival, HIV/AIDS, TB, clean drinking water, and sanitation solutions. Addressing gender inequality is a crosscutting focus of our USAID initiatives in India. We are helping to implement a safe cities partnership that focuses on increasing safety for women in public transportation, schools, streets, and connects women with advocacy and support services.    When the earthquake struck last year in Nepal, our 20-year investment in disaster risk reduction proved critical to Nepal's ability to respond. From more than 1,000 USAID-trained first responders who conducted search-and-rescue missions saving lives, to a major hospital that continued treating patients uninterrupted, due to the preparedness plan we helped them establish, the U.S. Government mobilized 130 million to respond to the immediate post earthquake needs, including construction of temporary schools, emergency nutrition and food, and expanding our countertrafficking in persons work to earthquake-affected districts.    Many obstacles lie ahead. Reconstruction from the earthquake is likely to take many years with total economic losses estimated at $7 billion.    U.S. support for the international effort to help Nepal's recovery is critical to helping maintain development progress. In 2015, Sri Lankans went to the poles to support a sweeping democratic reform agenda. Seizing on this democratic breakthrough, USAID is helping Sri Lanka strengthen democratic institutions through the Parliament, judiciary, and auditor general, as well as support for civil rights and human rights.    In addition, we are providing economic help for the poorest and most vulnerable Sri Lankans, especially in former conflict zones with resettlement and economically lagging regions.    Mr. Chairman, alongside diplomacy and defense, development plays an indispensable role in advancing our security and prosperity. We must address both immediate crises, and the root causes of poverty, conflict, and instability. This is the heart of our work in the South Asia region.    I appreciate the opportunity to testify, and I welcome any questions.</t>
   </si>
   <si>
@@ -169,6 +196,12 @@
     <t>412569</t>
   </si>
   <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perry. Thanks, Mr. Chairman. Ladies and gentlemen, thanks for being here. I am not sure who can, or would be willing to answer the question, but I am hoping one of you can. So the 2017 budget request for Nepal includes an over 300-percent increase in OCO, or overseas contingency operations funding, and a nearly 50-percent decrease in the base. Now, while the OCO request includes some continued earthquake assistance, it also includes a significant amount of funding for seemingly normal programs, like elementary reading education.    Can either one of you elaborate on the justification for shifting so much to the OCO account for Nepal?</t>
   </si>
   <si>
@@ -214,6 +247,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Ms. Biswal, in your opening remarks you mentioned the Maldivia, and I know you ran out of time, so I would like to ask you to speak a little bit more about the Maldives, and specifically, the percentage of their small population who are foreign fighters who are traveling to Syria.    Can you talk about how the United States is working with the Maldives to counter this strikingly high number of foreign fighters that they have from the Maldives?</t>
   </si>
   <si>
@@ -238,6 +277,12 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you very much, and thank you for being here today. First of all, I would like to talk briefly about Sri Lanka. They held elections obviously in 2015, and it has kind of marked, I would say, a political shift that is pretty significant in the country. And I had been to Sri Lanka in the past, and kind of witnessed firsthand some of the devastation that occurred during, and in the follow-up to the civil war and the unrest that they had there for quite some time, particularly in the north of the country and the area around Jaffna. What would you say is the situation relative to the government actually coming together, where Tamils feel an actual role in the government?    When I was there, and this has been probably 5, 6 years ago, they didn't feel like they were being treated at all well by the government. The government obviously had a different point of view on this. What would you say is the situation, and especially on the ground in the North? They said they were being excluded from being in police departments and a whole range of jobs and things. How are things now?</t>
   </si>
   <si>
@@ -257,6 +302,12 @@
   </si>
   <si>
     <t>412272</t>
+  </si>
+  <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman, and welcome. I want to go back to Nepal for a minute, and following up on the gentleman from Pennsylvania's questioning of the use of overseas contingency accounts. And I may have misunderstood the gentleman from Pennsylvania, but it seemed like his last observation was, well, we are always going to have problems in Nepal. And that is true, but I wanted to put this in perspective. The earthquake that occurred over a year ago in Nepal, was it not something like the third largest, most intense earthquake ever recorded? Mr. Stivers, somebody?</t>
@@ -692,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +751,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,2213 +773,2600 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G41" t="s">
+        <v>60</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s">
+        <v>60</v>
+      </c>
       <c r="H47" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>60</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G51" t="s">
+        <v>77</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G64" t="s">
+        <v>96</v>
+      </c>
       <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G66" t="s">
+        <v>96</v>
+      </c>
       <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G68" t="s">
+        <v>96</v>
+      </c>
       <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G70" t="s">
+        <v>96</v>
+      </c>
       <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G72" t="s">
+        <v>96</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G74" t="s">
+        <v>96</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G77" t="s">
+        <v>96</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>80</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G79" t="s">
+        <v>96</v>
+      </c>
       <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>80</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G81" t="s">
+        <v>96</v>
+      </c>
       <c r="H81" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>80</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G83" t="s">
+        <v>96</v>
+      </c>
       <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>80</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G86" t="s">
+        <v>96</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>80</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G88" t="s">
+        <v>96</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>109</v>
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20099.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20099.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>412512</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Bera</t>
@@ -743,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,7 +763,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,2597 +788,2800 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H49" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G64" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G66" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G68" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>36</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G70" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G72" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G74" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>36</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G77" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G79" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G81" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H81" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G83" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" t="s">
-        <v>32</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>36</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G86" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G88" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>126</v>
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
